--- a/assets/Year2023text/combined/2023_student_3.xlsx
+++ b/assets/Year2023text/combined/2023_student_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,27 +458,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Try to salvage and/or utilize the "main" components (lens, screen, buttons, lights) 3. </t>
+          <t xml:space="preserve">Original Code: https://p5play.org https://editor.p5js.org/quinton-ashley/sketches/szN_XdV5O  Trial and error: I initially started with saving the code on my desktop and updating it with notepad, however it was difficult to see the effect of my changes. </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6710942387580872</v>
+        <v>0.7867687344551086</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ideas of what to recreate ranged from a charger, to getting the screen to turn on, to making an aesthetic art piece, to a telescope from the lens  Disassembling Phase: I used a screwdriver to easily take apart the camera There were a series of different boards inside along with the obvious of lenses, lights, batteries, the screen I am unsure what the orange strips were, my one thought is that they function as the "wires" to send signals to the various boards Once I saw the hole that the main lens left when it was removed I then had the thought "I could make this a speaker!"  Revision Phase: I make Bluetooth speakers with my students, so I knew I had the supplies to make this happen I used a Dremel to remove some plastic for a 9V battery to fit inside the case, as well as had to Dremel down the switch to make it fit in the original button hole Once I soldered the switch and  glued in the speaker, the last (most challenging) part was to reassemble the case and screw it all back together  Reflection I wish I paid closer attention when disassembling the case because the most challenging part was reassembling it. </t>
+          <t xml:space="preserve">I was able to change the directions in which they moved and adjust the speed by updating the velocity  Pseudocode  I was having difficulty changing the background, so I then switched over to the js5 editor and started to work there. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,18 +487,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4500018060207367</v>
+        <v>0.5278916954994202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">It took me a while to realize I needed to utilize the metal sections I had taken out in order for the screws to hold. </t>
+          <t xml:space="preserve">I then found additional code that I could add to change shapes and colors of the "sprites" so I experimented with the dots, polygon and star shape. </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -507,18 +507,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5572580099105835</v>
+        <v>0.5536707639694214</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">As I think about the word "repair" I used to associate it with fixing a current object in order to restore its original function. </t>
+          <t xml:space="preserve">Each one reacted differently - the polygon had a "collide" and "bounce" reaction, whereas the star held the sprites inside of its borders  The code remix was quite challenging when I was getting started and trying to figure out how to use the libraries. </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -527,38 +527,38 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5328930020332336</v>
+        <v>0.5742648839950562</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">However, after reading Rethinking Repair, I began to understand that repair is beyond just fixing something, but rather the beauty of repair is that it can become something totally new. </t>
+          <t xml:space="preserve">I had difficulty changing the background of the game, as I initially wanted to switch it out to look like a video game background. </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7605043649673462</v>
+        <v>0.714338481426239</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Originally, I was so focused on "needing" to use the electronics of the camera that I felt stuck, but once I allowed myself to be okay with not using those components I really enjoyed creating something entirely new within its case. </t>
+          <t xml:space="preserve">Original code: Follow  (with pseudocode)  Biggest learnings from the pseudocode exercise 1. </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -567,18 +567,18 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3871769607067108</v>
+        <v>0.6559845805168152</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">FIRST IDEA Materials: Crocs: Primarily composed of PEVA and fabric Jeans: Jeans, button, ziper, thread  This was my daughter crocs that is too tight. </t>
+          <t xml:space="preserve">draw() is the key to create interactive graphics and animation 3. </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -587,18 +587,18 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7011575698852539</v>
+        <v>0.5406166315078735</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">I planned to do a pencil case as you can see on the sketch. </t>
+          <t xml:space="preserve">New design idea 1: I wanted to make a snake game/"fish eat fish" type of experience and realized that it would be too difficult  After playing around the code, I realized that frameRate() is a intersting function so I kept it  New design idea 2: I got interested in this movement and wanted a drawing effect to show the trail/track of the movement  I did not know how to search for the effect I wanted at first. </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -607,18 +607,18 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7794008255004883</v>
+        <v>0.5580220222473145</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">SECOND IDEA  Materials: 	â¢	Crocs: Primarily composed of polyethylene vinyl acetate (PEVA) and fabric 	â¢	Part of a Lamp (I found it in my building garbage like this): Metal inside and plastic outside 	â¢	Crochet thread  Sketch: As the crocs is made of plastic and water proof, I thought about bringing life to something that was already junk. </t>
+          <t xml:space="preserve">New design:  Art tool (and a math learning tool)  Changes made based on the original code 1. </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -627,18 +627,18 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6680177450180054</v>
+        <v>0.7186627388000488</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">When I finished sewing, I planted the bean in cotton and another one on land to see which one would grow. </t>
+          <t xml:space="preserve">Added a slider to control the frame rate and a clear button to reset the canvas  A user can adjust the frame rate with the slider. </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -647,47 +647,47 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6761738061904907</v>
+        <v>0.5504080057144165</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">In today's fast-paced world, we often discard objects that are broken or no longer useful, without giving much thought to repairing or repurposing them. </t>
+          <t xml:space="preserve">When the rate is higher, the lines are denser from before and present a different artistic feeling  I tried changing the color and length of the strokes in the code. </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8042792677879333</v>
+        <v>0.5210323929786682</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">The dissembling process itself is a test for perseverance and creativity. </t>
+          <t xml:space="preserve">Given more time, I will build them as buttons or sliders for users to play with  1.Building connection with other knowledge: coding is a great way to learn math and also concepts of physics. </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5058594942092896</v>
+        <v>0.731347382068634</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">I observed more closely and had deeper understanding of every pieces when brainstorming for new design I failed forward. </t>
+          <t xml:space="preserve">Learning code is like learning another language that is rooted in computational thinking. </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5080288648605347</v>
+        <v>0.6224501729011536</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -718,127 +718,127 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">The article âRethinking Repairâ made me think about the concept of repair as I worked through this assignment, and that it goes beyond fixing broken items, but also thinking about repurposing and reusing. </t>
+          <t xml:space="preserve">However, constructionist way of learning coding gave me an understanding of what codes can do and build self-efficacy. </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5519153475761414</v>
+        <v>0.6367930769920349</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Materials 	â¢	Mechanical pencil and pen 	â¢	Bottle cap 	â¢	Buttons 	â¢	Hand sanitizer bottle  Parts  	â¢	additional items added during process: wooden base, cloth to connect springs and base  Tools 	â¢	Scissors 	â¢	Super glue 	â¢	Needle and thread   Design sketch/ Bobble Toy  Process   Video  Final The springs were different sizes/heights, which caused the base to be slanted. </t>
+          <t xml:space="preserve">I now know how to debug and solve problems on my own. </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7652223706245422</v>
+        <v>0.5747784972190857</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Object being disassembled: Dell Docking Station  Reason classified as "trash": one cable stopped working, and the cable itself is more expensive than buying a brand new docker. </t>
+          <t xml:space="preserve">First I created a rectangle to put inside the buttons. </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8746774196624756</v>
+        <v>0.6647347211837769</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Step 1: Disassembly  Printed circuit boards Screws (multiple sizes) Adhesive foot Exterior wire Casings Plastic cable holders Halogen-free fast cable Metallic structures  Not pictured: base rubber surface   Step 2: Planning  Part 1- Goal Redesign: Pencil holder with cute face To the left: initial sketch idea Materials used: salt container (label removed) base rubber surface surrounds container bottle caps (as eyes) magnets (for holding up caps) plastic cable holder (as eraser cup) flat wire (as smile) Issues with first design: The cardboard of the salt container was too thick to use magnets Difficulties sticking objects to rubber surface  Part 2- To the left: reworked sketch idea Materials added: tape (to adhere objects to container) salt pourer (as nose) twist tie (new smile) smaller plastic cable holder (for holding screws) Issue resolution: Tape/sticky putty used for sticking objects Added features: Eraser cup is now for USBs New cup for screws Nose added to face Handle added to drag holder around New issues: Handle is insecurely attached (wire/rubber material not compatible)  Step 3: Final Product Face Handle In Use  Reflection Card: Interestingly enough, the disassembly part was easier than the redesign section. </t>
+          <t xml:space="preserve">I didn't know how to do the buttons, but with the help of Akio and the references I was able to create. </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6188904047012329</v>
+        <v>0.6040099263191223</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ultimately, I was saddened that I wasn't able to incorporate more parts from the original object in my redesign, even though I did use scrap parts from around my room.</t>
+          <t xml:space="preserve">Play the video to see the code working! </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8628668189048767</v>
+        <v>0.5652314424514771</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">The object I have disassembled is Dreamcast, a home video game console. </t>
+          <t xml:space="preserve">But after I was able to create the reset button :)  Along with my code is possible to read my pseudocode where I explain my choices. </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.7492168545722961</v>
+        <v>0.5326899886131287</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thus, when I disassemble it myself, I do not have a complete idea of its functionality, its pros and cons. </t>
+          <t xml:space="preserve">I wanted to add a button but didn't know how, so I looked for references and even sought help from ChatGPT. </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -847,18 +847,18 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5739808082580566</v>
+        <v>0.5686148405075073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">I can then generate more ideas and inspiration when I use the disassembled parts to design new objects. </t>
+          <t xml:space="preserve">With Akio's help and my own research, I was able to find a simple code that I felt comfortable with. </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -867,58 +867,58 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.6495230197906494</v>
+        <v>0.7519181370735168</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dreamcast The object I disassembled is called Dreamcast, it is aÂ  home video game console released by SegaÂ in 1998. </t>
+          <t xml:space="preserve">I dedicated a significant amount of time to styling the code and making it look good. </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.7636777758598328</v>
+        <v>0.8133167028427124</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">But I never repaired something; when necessary, I took it to a specialist, mainly if it was an electronic item. </t>
+          <t xml:space="preserve">This project was especially meaningful to me as my daughter had asked me to draw on my computer using paint, so finding a suitable code was a fun challenge. </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.7431046962738037</v>
+        <v>0.7776041030883789</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">In my learning process, I could not identify how the parts worked to make it functional, for example, how the web camera I disassembled makes it possible to record a person and instantaneously reproduce on a computer. </t>
+          <t xml:space="preserve">Link to original project with pseudocode comments: https://editor.p5js.org/hh2867/sketches/RfEPqAr6A  Link to NEW project with pseudocode comments on what has been reiterated: https://editor.p5js.org/hh2867/sketches/F5u02Xbj_  Summary of what I changed:  I turned the simple foggy forest into a meditation experience with purpose. </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -927,18 +927,18 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5907249450683594</v>
+        <v>0.67035973072052</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Whenever I had a new idea, I had to test and understand the toy balance point. </t>
+          <t xml:space="preserve">For this I was able to utilize other codes in the p5js gallery by looking at how various people had made rain. </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -947,18 +947,18 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7022578716278076</v>
+        <v>0.5207165479660034</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">In my family, we have a culture to avoid breaking - I wrote more about this in my gear essay. </t>
+          <t xml:space="preserve">I knew what I needed to happen and what the computer needed to be told to make it happen, but it took me a bit to figure out the correct 'if, else' statement to make it happen. </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -967,38 +967,38 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.585985004901886</v>
+        <v>0.6017066836357117</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">If it were broken, we would never disassemble it. </t>
+          <t xml:space="preserve">This portion really taught me how to problem-solve. </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5746837854385376</v>
+        <v>0.7389010787010193</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">I've witnessed my mom fixing bikes, computers, TV, and almost all other small electronic appliances. </t>
+          <t xml:space="preserve">Inspiration  Pseudocode  How chatGPT helped me understand some of the functions that's not in the P5Js documentation: https://docs.google.com/document/d/1eFn8tIhPKjN6LbFnvKq4dM_LRPCFKbp6VwpUPaz8epM/edit?usp=sharing  Remixing  Reflection Card: Adding the pseudocode "forced" me to think about what each line means and does in the code. </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5960608124732971</v>
+        <v>0.5899074673652649</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are at least eight inputs on the mouse and they are all controlled by such a small integrated circuit! </t>
+          <t xml:space="preserve">ORIGINAL CODE choose a "Pattern Creator" code to explore and remix. </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1027,18 +1027,18 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5274459719657898</v>
+        <v>0.7711911201477051</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Counting the interactive components on a mouse...Â  6 clickable buttons, 1Â Scroll wheel, 1 switch, 1wireless connector of some sort, 1 light with optical sensing  Vision Board and initial design... </t>
+          <t xml:space="preserve">Here is the link: Code: https://showcase.p5js.org/#/2022-All/pattern-creator/  TINKERING WITH THE CODE 1- I read line by line to understand the code and its functions; 2 - For the functions that I couldn't understand, especially the ones that used Cos and Sen calculations, I changed the number to observe changes. </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1047,38 +1047,38 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.7879239320755005</v>
+        <v>0.6171656250953674</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Some of them are a bit too small for me) I had to rethink my design to use the big parts in the end. </t>
+          <t xml:space="preserve">platform helped me translate to p5.Js language what I wanted to do on the code, but I didn't know how to write it. </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7779401540756226</v>
+        <v>0.5088778734207153</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">I embody the online-offline contrast by creating a tape collage to represent the offline experience, highlighting the colorful yet noisy online conversations, while I used soft and solid cotton dyed in red, green, blue and yellow, together with small objects on top that help simulate a dreamlike micro-environment to represent the intimacies of offline experience. </t>
+          <t xml:space="preserve">Remix Code 1 - my first test was to change the fixed pattern numbers by setting up the initial pattern with my birthday date; 2 - as a coincidence, the createPattern(120, 5.1, 988) created a pattern that resembled a prism dispersing light into color from Pink Floyd's album: the Dark Side of the Moon. </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1087,38 +1087,38 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.4540850222110748</v>
+        <v>0.7447366714477539</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reflection: Reading Jackson's essay makes me rethink the realtionship between objects and meaning, especially in a world that is so intellectually oriented. </t>
+          <t xml:space="preserve">Due to this, I decided to add music to my remix code. </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6243302226066589</v>
+        <v>0.5302634835243225</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">In my own practice of dissecting and repurposing an old object, an old flip-phone, I really try to think about its original use and meaning  for people, then how I can develop new, or even opposite meaning in it. </t>
+          <t xml:space="preserve">Once I wrote the code, the pattern start point changed from one drawing to another, and it did not spin. </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1127,38 +1127,38 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.58506178855896</v>
+        <v>0.5940549969673157</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">The outside had an aluminum tube protecting it and the only other visible parts were the charger ports (one USB, one Micro USB). </t>
+          <t xml:space="preserve">As a learning reflection, this was a challenging assignment. </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.7159257531166077</v>
+        <v>0.6938643455505371</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">There also was plastic on top and the bottom. </t>
+          <t xml:space="preserve">Link to Original Code: https://editor.p5js.org/reajmorais/sketches/8UxKOWank  Video of what the original project looks like  Original Code of the Project  For me, the most challenging part of dissecting the original code was first, determining which object was actually moving, was the background that was moving? </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1167,18 +1167,18 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5376654267311096</v>
+        <v>0.7786223888397217</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">I knew there would be a circuit board, battery, and wires connecting them inside. </t>
+          <t xml:space="preserve">My answer to that question came from "messing around" with different parts of the code in order to figure out each code's purpose. </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1187,38 +1187,38 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.7364875674247742</v>
+        <v>0.7249158620834351</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">When I began taking the portable charger apart, I had trouble taking the outer plastic casing off. </t>
+          <t xml:space="preserve">As part of the new project I was creating, I coded the airplane, whereas, in the original project, it was not the case. </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.7131526470184326</v>
+        <v>0.679989755153656</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">I used a variety of tools and eventually decided I would need to break some of the plastic. </t>
+          <t xml:space="preserve">Link to  the modified code with new interactions - aka the "new" project code as well as the pseudocode:  https://editor.p5js.org/zw2754/sketches/6yKBRaSAt  Video of the new project:  Screenshot of the new/modified code  Summary of the major changes(codes) I've made to the new project:  I have changed the background music by uploading my favorite music to the Sketch assets and then calling it afterwards I wrote new code to create an airplane to replace the original train object and then allowed it to move with my mouse so I could control it anywhere I wanted to go In order to match my theme, I change the frame size and speed of the mov  Creative Code Reflecting and Learning  Throughout the dissect/remix/re-create code process. </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1227,58 +1227,58 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.6034089326858521</v>
+        <v>0.5797219276428223</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Once the top was off, it was easy to slide the rest of the aluminum casing off. </t>
+          <t xml:space="preserve">Learning happens through constantly trying, exploring, analyzing what you observe, and reflecting on the steps you have tried. </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.6100102663040161</v>
+        <v>0.572192370891571</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">A majority of pieces are plastic besides the aluminum casing. </t>
+          <t xml:space="preserve">Original Project Animation  Original Project Link: https://editor.p5js.org/jooprojects/full/Y6T0202my  Original Code: https://editor.p5js.org/jooprojects/sketches/Y6T0202my  Reflection Card: When remixing, it is difficult to think outside the constraints of what is already built. </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5723356604576111</v>
+        <v>0.5289707779884338</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">There also was a screw. </t>
+          <t xml:space="preserve">It also took a lot longer than I expected to come up with a remix idea and then implement it. </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1287,58 +1287,58 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5145631432533264</v>
+        <v>0.4537266790866852</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">The actual portable charger was made of a circuit board, connected by 2 wires to a battery, as anticipated. </t>
+          <t xml:space="preserve">Because of this, I wasn't able to add the sound component that I wanted, because I couldn't add the sound library, and didn't leave myself enough time to explore other options to add the sound library. </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8692960739135742</v>
+        <v>0.8163641095161438</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">The circuit board had a copper wire wrapped around a spool on top, assumably for conducting energy. </t>
+          <t xml:space="preserve">When remixing, it is difficult to think outside the constraints of what is already built. </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8034033179283142</v>
+        <v>0.6737696528434753</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">The aluminum and plastic parts are more decorative and protective, whereas the circuit board and battery are structural. </t>
+          <t xml:space="preserve">It also took a lot longer than I expected to come up with a remix idea and then implement it. </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1347,58 +1347,58 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.750874400138855</v>
+        <v>0.4537266790866852</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">The screws and wires, including the copper, are more connecting parts. </t>
+          <t xml:space="preserve">Because of this, I wasn't able to add the sound component that I wanted, because I couldn't add the sound library, and didn't leave myself enough time to explore other options to add the sound library. </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8064085841178894</v>
+        <v>0.8163641095161438</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">I recently have moved a lot and don't have a lot of materials, and struggled to think of how to repurpose this with what was available. </t>
+          <t xml:space="preserve">It is very visible in commented out code where the creator experimented on their own work and gave me inspiration to pursue my own remixing  Pseudocode: https://docs.google.com/document/d/1Kwy9dI7jchvXM-6i0zSzKDrNF05c9FHQtFuoJbqRCfI/edit?usp=sharing  Here is where I learned about user interaction through mouseIsPressed boolean  In redesign, I realized that the frameCount means that the ellipses are moving further apart, which makes the flowers appear bigger, but kind of ruins my heart shape in redesign  I don't understand how the effect of frameCount affects the shape of the flowers, both in placement and creation  Changes to Code: 1. </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.7042745351791382</v>
+        <v>0.427958756685257</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">So, I simplified my goal and used the aluminum aspect, the plastic cap on the bottom, and tape to reattach the pieces. </t>
+          <t xml:space="preserve">Original code: I went through a few different coding iterations, trying out different ideas in an html format using a shader and htlm. </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.6483133435249329</v>
+        <v>0.726994514465332</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1418,16 +1418,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Then, I thought it could be repurposed as a dog toy (putting treat inside for my dog to get out). </t>
+          <t xml:space="preserve">Ultimately, I moved away from this because although I could create the html and add text, I couldn't get the p5.js codes for shaders to run properly after 4 days. </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.6630719304084778</v>
+        <v>0.8120082020759583</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1438,16 +1438,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">In the future, I will take apart electronics with more of a plan in place of how to use, and will focus on developing my understanding of how to use these pieces. </t>
+          <t xml:space="preserve">I decided finally on this project: My comments can be found here and below: This code drew me in because of its use of sine. </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.5854151248931885</v>
+        <v>0.5648409128189087</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">This process helped me reflect on the ways we must have a plan to critically use technology. </t>
+          <t xml:space="preserve">I've always felt called to the natural waves of sine curves, and in this case, it felt connected to water and breathing, which are both very calming for me, so it felt appropriate to remix. </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.6262810230255127</v>
+        <v>0.7173401713371277</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1478,16 +1478,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">As Jackson (2014) illustrated, technology is often made (like the MacBook Pro example) in ways that make it extremely difficult to repair and not necessarily environmentally friendly. </t>
+          <t xml:space="preserve">I started off using more complex codes from open source libraries, and was frustrated trying to figure out what they were saying. </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.5114262104034424</v>
+        <v>0.7730002403259277</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">This process also made me reflect on the importance of patience. </t>
+          <t xml:space="preserve">Instead of being frustrated at what I did not know, I moved into simpler codes and practiced translating what I did know and understanding! </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.6942535638809204</v>
+        <v>0.4181957244873047</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1518,16 +1518,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">I ended up creating something that is not useful, and so it does not constitute a worthwhile repair or sufficiently salvaging the materials. </t>
+          <t xml:space="preserve">Although many of my translations didn't "translate" into my final project, they were crucial steps in the beginning/middle to my exploration, applying, learning, and reflecting,  Remix code: https://youtu.be/EKHuIGBPofs At first, I was browsing aimlessly looking for ideas and just trying to understand what different codes were saying. </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.8327643275260925</v>
+        <v>0.6603967547416687</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repair is a big part of my family traditions as my father and grandfather both are mechanics, and so I was raised in a tradition of repairing whatever we could, and although I have more experience with repairing non-electronics I am looking forward to gaining practice in this realm. </t>
+          <t xml:space="preserve">I like this code because it had a movement element that I felt could convey similar movements to breathing. </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.7443138957023621</v>
+        <v>0.6979081034660339</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1558,47 +1558,47 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">The experience of grabbing a microwave from the street's trash, dissecting it, and repurposing the fan was counter-cultural in different ways. </t>
+          <t xml:space="preserve">When completing my remix, I tried adding pictures, gifs, appearing/disappearing text, shaders, and rotating circles, but it all felt too complicated for the message I was trying to convey. </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.7199535965919495</v>
+        <v>0.4777674674987793</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">I was used to thinking about repairing technology as a man's task: the person that always fixed artifacts in my home was a man. </t>
+          <t xml:space="preserve">Reflection Card: I went through 7 iterations using different code blocks, although the most surprising knowledge came from working with htlms. </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.5292344689369202</v>
+        <v>0.4568066000938416</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Second, repairing instead of using new materials was a way to care for the environment and our technologies. </t>
+          <t xml:space="preserve">I knew htlms were websites, and I knew they were coded, and I knew javascript existed, but I did not know how they all fit together. </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1607,38 +1607,38 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.4558084309101105</v>
+        <v>0.6166676878929138</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jackson (2014)  invites us to build a strong relationship with objects and take care of them and proposes an ethics of mutual care and responsibility, called repair-centered ethics paradigm. </t>
+          <t xml:space="preserve">At first, I was really confused trying to run my code in p5js because I wanted it to be a website. </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.521369993686676</v>
+        <v>0.6594226360321045</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">The story of a useless microwave found in the street's trash  DISASSEMBLING PHASE: COMPONENTS  Quick notes in the lab of akio's explanation  TOOLS  CORE PART Mostly metal, and plastic  Beeper Motor Magnetron Fuse Capacitor Transformer  Fan and Structure attaching  it  external structure  Base and wall: metal Door: Plastic  Walls with ventilation  Base with ventilation  Door  Buttons  attaching parts Mostly metal, and plastic  Spring   Screws Metal attachments Gears  Video of the process  repurpose and design phase  Once I disassembled the different parts, I observed each element and found the fan an interesting element to start playing and trying things. </t>
+          <t xml:space="preserve">I used online resources to learn that I needed another application (I used Brackets) and html starter code and then it would make a website. </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1647,38 +1647,38 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.6187592744827271</v>
+        <v>0.6959449052810669</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Second Idea  Try out the fan, as I forgot to plug in the microwave to test if it was working. </t>
+          <t xml:space="preserve">original code  My code  Reflection Card: I remix this character board by infusing in words and characters that are personally meaningful to me, that is a mixture of Chinese characters from my favorite poems, English letters, and the numbers 0,1 which represent the digital world we live in. </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.6111236214637756</v>
+        <v>0.6505783200263977</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">I decided to put a switch to pick if I wanted to turn it on or off. </t>
+          <t xml:space="preserve">Original Code Link New Code Link Zoom in Video  if you press "s" you can save screenshot via code  Insight  LVN (which I got to know at MIT media lab) is a AI-powered listening and analytic tool help users see patterns across conversation, identify theme, and highlight voices around what matters most in the community. </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1687,18 +1687,18 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.6715211868286133</v>
+        <v>0.5831767320632935</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Megan helped me to use a multimeter to measure the voltage. </t>
+          <t xml:space="preserve">Getting data from LVN, I extracted the keywords in NY and Education that happened in Manhattan which is my current community and put them into the array of my code and so that they could be displayed on the screen. </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1707,58 +1707,58 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.4856259226799011</v>
+        <v>0.7180995345115662</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fourth idea  Stick metallic and colorful stars in the helix to see a nice effect. </t>
+          <t xml:space="preserve">The orbit rotation also represents the shape of  manhattan (which is tilted little right)  Trial &amp; Error  I wanted to add sound to the background Akio helped me and we tried to copy the code from the processing website it did not work, unfortunately, giving unfathomable errors. </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.4953159093856812</v>
+        <v>0.7446824312210083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Final PRODUCT  electric Fan with switch and decorations to refresh ourselves during summer and put in a desk or nightstand. </t>
+          <t xml:space="preserve">However, for some reason which I cannot decipher, it did not run on my computer. </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.5728968381881714</v>
+        <v>0.5952799320220947</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">I attached the fan to a recycled piece of wood, as I was looking for a non-conductive material. </t>
+          <t xml:space="preserve">Reflection Card: 1) By writing pseudocode, I was able to comprehend most reasoning behind every graphics. </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1767,18 +1767,18 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.7789108157157898</v>
+        <v>0.545387327671051</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">I added a wood support to put the fan in a table. </t>
+          <t xml:space="preserve">Code Remix:   The story of learning to code: Live information from my coding learning process  My first idea was to work on a project that had an interactive component between the body of the user and the computer. </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.695391058921814</v>
+        <v>0.6465307474136353</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">It was intriguing to see how the notion of "repairing" was articulated as a "timely phenomenon bridging past and future", namely "aftermath", which inherits the layered world and entails continuity of "order, value, and meaning" (Jackson, 2014). </t>
+          <t xml:space="preserve">I started working with another project:  ORIGINAL PROJECT  Pseudo code comments  Video Recording  Visualization  Code  The exercise of writing pseudocode allowed me to review the foundation of coding and trying to fix some of the basic notions. </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1807,38 +1807,38 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.4397342503070831</v>
+        <v>0.6025251746177673</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">In my project, the phone slider and the movable monitor stand were manifested as embodied instructional material of the number system and provided the embodied structure of 2 players game, respectively. </t>
+          <t xml:space="preserve">At the beginning, this function and measures scared me. </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8203732967376709</v>
+        <v>0.9026225805282593</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">I think the original purpose of the embodied design affordance was sustained and transformed throughout the ârepairâ process and the project entails a portion of the essence of the aftermathâcontinuity (of order and value) and resilience. </t>
+          <t xml:space="preserve">I still don't understand the whole code, but I was able to play with the speed numbers change and the interval. </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1847,18 +1847,18 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.6586543917655945</v>
+        <v>0.5708193182945251</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Old Slider Phone Employing slider to represent and embody base 2 &amp; base 3 number system to encourage children to concretize number system with sensorimotor movement. </t>
+          <t xml:space="preserve">REMIX CODE  Pseudo code with changes Video Recording Visualization Code  I decided to start with something simple, so I changed colors with picker color and change the name in the entire code to make it coherent to the reader/programmer. </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1867,18 +1867,18 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.5345385074615479</v>
+        <v>0.7025730013847351</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Slider (Coil, wire, plastic)  Attaching knobs to two slider coils  Employing affordance of the phone slider to embody base 2 and 3 number system  Learning binary (base 2) number system  base 2 &amp; base 3 number system  Challenge: I initially had not intuitive moment learning base 2 (binary) system and it was easier for me to learn base 3 than base 2 given that base 3 is similar to base 10 (decimal) system which we use universally. </t>
+          <t xml:space="preserve">Megan suggested to use COMMAND + F to not forget any piece of code. </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1887,18 +1887,18 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.6023328900337219</v>
+        <v>0.7047681212425232</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Throughout this process, I realized employing other representation than number would be the easier way to learn the logic of the number system. </t>
+          <t xml:space="preserve">I wanted to add music to this code remix and Inara helped me. </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1907,71 +1907,131 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.4822688698768616</v>
+        <v>0.5884823203086853</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monitor Stand (screw, spring, rubber, magnet)  Monitor Screen (film, circuit, power supply, sound/color generator, buttons)  Serendipitously I figured out that the surface of the stand  is composed of magnet! </t>
+          <t xml:space="preserve">At the beginning, I was worried because code is still difficult for me. </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.5435785055160522</v>
+        <v>0.8012274503707886</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">slider phone)  Gluing colored-buttons on the magnet to attach it on the monitor stand. </t>
+          <t xml:space="preserve">At the end of the task I started feeling more comfortable with the code, and I was able to introduce more important changes. </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.8100442886352539</v>
+        <v>0.7564206719398499</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">This way, we can express base 2 or 3 number system using different embodied representation! </t>
+          <t xml:space="preserve">The pseudocode helped me to understand the code, but until the end of my task I was discovering new functions and meanings. </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.5925748348236084</v>
+        <v>0.509166955947876</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Remixing a code helps to have a foundation where you can start programming, because an empty white page can be hard for beginners. </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.4475867748260498</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When I felt I was breaking the code, asking for help to my peers and teacher assistants was a good way to feel that things were not so complicated: we just needed some tools and tricks. </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.4153512418270111</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>During the process, I just thought about the difficulties to code, so I decided to build a live data visualization of my code learning process.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6240835189819336</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>07</t>
         </is>
       </c>
     </row>
